--- a/biology/Botanique/Streptophyta/Streptophyta.xlsx
+++ b/biology/Botanique/Streptophyta/Streptophyta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Streptophytes (Streptophyta) sont un infra-règne des Chlorobiontes (les « Plantes vertes »).
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Streptophytes, au sein de la « lignée verte » (les Archaeplastida ou Plantae), sont le groupe frère des Chlorophytes.
 Elles comprennent celles des algues vertes autrefois regroupées dans le groupe basal paraphylétique des Streptophycophytes (incluant les Charophycées), ainsi que le groupe monophylétique des Embryophytes. Il n'est pas clair si le groupe des Mésostigmatophycées est le groupe frère de toutes les autres Streptophytes, ou s'il est le groupe frère de l'ensemble { Chlorophytes + Streptophytes }.
@@ -557,10 +571,12 @@
           <t>Synapomorphies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les principales synapomorphies (caractères dérivés propres) de ce groupe sont :
-la photorespiration est réalisé par la glycolate oxydase (au lieu de la glycolate déshydrogénase)[1]
+la photorespiration est réalisé par la glycolate oxydase (au lieu de la glycolate déshydrogénase)
 Absence de matrotrophie[réf. nécessaire]
 Fécondation par zoïdogamie[réf. nécessaire]</t>
         </is>
